--- a/topic_03/excercise/import-excel-banking/target/classes/fis/java/banking/lich-su-giao-dich.xlsx
+++ b/topic_03/excercise/import-excel-banking/target/classes/fis/java/banking/lich-su-giao-dich.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A3B4FC-E9B3-4AE5-81D0-3C8510293C7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -54,52 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
-  <si>
-    <t>${cifNo}</t>
-  </si>
-  <si>
-    <t>${cusName}</t>
-  </si>
-  <si>
-    <t>${curDate}</t>
-  </si>
-  <si>
-    <t>${branchName}</t>
-  </si>
-  <si>
-    <t>${accNumber}</t>
-  </si>
-  <si>
-    <t>${accType}</t>
-  </si>
-  <si>
-    <t>${ccy}</t>
-  </si>
-  <si>
-    <t>${avaiBalance}</t>
-  </si>
-  <si>
-    <t>Số CIF</t>
-  </si>
-  <si>
-    <t>Tên Khách hàng</t>
-  </si>
-  <si>
-    <t>Số tài khoản</t>
-  </si>
-  <si>
-    <t>Loại tài khoản</t>
-  </si>
-  <si>
-    <t>Loại tiền tệ</t>
-  </si>
-  <si>
-    <t>Số dư khả dụng</t>
-  </si>
-  <si>
-    <t>Chi nhánh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="131">
   <si>
     <t>Ngày giao dịch</t>
   </si>
@@ -113,31 +69,34 @@
     <t>Chi tiết giao dịch</t>
   </si>
   <si>
-    <t>SAO KÊ CỦA TÀI KHOẢN</t>
-  </si>
-  <si>
-    <t>14/03/2022 20:59:26</t>
-  </si>
-  <si>
-    <t>11385307</t>
-  </si>
-  <si>
-    <t>CN THÁI BÌNH</t>
-  </si>
-  <si>
-    <t>PHAM DUC THO</t>
-  </si>
-  <si>
-    <t>47110001193988</t>
-  </si>
-  <si>
-    <t>69,877</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>VND</t>
+    <t>17/03/2022 17:42:48</t>
+  </si>
+  <si>
+    <t>-1,100</t>
+  </si>
+  <si>
+    <t>68,777 VND</t>
+  </si>
+  <si>
+    <t>970418XXXX994110- 990063 - 17032022-104234- 150354- 012000- 00000010931</t>
+  </si>
+  <si>
+    <t>-1,000,000</t>
+  </si>
+  <si>
+    <t>69,877 VND</t>
+  </si>
+  <si>
+    <t>17/03/2022 12:08:47</t>
+  </si>
+  <si>
+    <t>+1,000,000</t>
+  </si>
+  <si>
+    <t>1,069,877 VND</t>
+  </si>
+  <si>
+    <t>Tfr Ac: 47110000841512 PHAM THI MINH LY Chuyen tien</t>
   </si>
   <si>
     <t>02/03/2022 18:13:19</t>
@@ -146,9 +105,6 @@
     <t>-500,000</t>
   </si>
   <si>
-    <t>69,877 VND</t>
-  </si>
-  <si>
     <t>970418XXXX994110- A1242175- 02032022-111450- 552062- 010000- 00000981957</t>
   </si>
   <si>
@@ -176,9 +132,6 @@
     <t>02/03/2022 15:43:09</t>
   </si>
   <si>
-    <t>+1,000,000</t>
-  </si>
-  <si>
     <t>3,576,147 VND</t>
   </si>
   <si>
@@ -194,9 +147,6 @@
     <t>2,576,147 VND</t>
   </si>
   <si>
-    <t>Tfr Ac: 47110000841512 PHAM THI MINH LY Chuyen tien</t>
-  </si>
-  <si>
     <t>27/02/2022 23:59:59</t>
   </si>
   <si>
@@ -231,16 +181,283 @@
   </si>
   <si>
     <t>TKThe :0211000515206, tai VCB. MBVCB.1767461021.031282.cam on ban iu nhieu nhe.CT tu 0211000515206 TRAN PHUONG THAO toi 47110001193988 PHAM DUC THO (BIDV) Dau tu va phat trien Viet Nam -CTLNHIDI0</t>
+  </si>
+  <si>
+    <t>21/02/2022 15:27:49</t>
+  </si>
+  <si>
+    <t>-300,000</t>
+  </si>
+  <si>
+    <t>109,248 VND</t>
+  </si>
+  <si>
+    <t>970418XXXX994110- 10064078- 21022022-082919- 539701- 010000- 00000180906</t>
+  </si>
+  <si>
+    <t>409,248 VND</t>
+  </si>
+  <si>
+    <t>14/02/2022 20:43:21</t>
+  </si>
+  <si>
+    <t>+222,222</t>
+  </si>
+  <si>
+    <t>412,383 VND</t>
+  </si>
+  <si>
+    <t>TKThe :0030102959888, tai MB. PHAM HUONG YEN chuyen khoan -CTLNHIDI0</t>
+  </si>
+  <si>
+    <t>10/02/2022 10:35:13</t>
+  </si>
+  <si>
+    <t>-1,100,000</t>
+  </si>
+  <si>
+    <t>190,161 VND</t>
+  </si>
+  <si>
+    <t>Tfr Ac: 12010008966678 O@L_010002_211701_0_0_504920507_VIETTEL NaptienVIETTLPAY BIDV 220210 2202104749379 Nap tien ViettelPay 84343510657</t>
+  </si>
+  <si>
+    <t>10/02/2022 10:33:11</t>
+  </si>
+  <si>
+    <t>+750,000</t>
+  </si>
+  <si>
+    <t>1,290,161 VND</t>
+  </si>
+  <si>
+    <t>30/01/2022 16:56:29</t>
+  </si>
+  <si>
+    <t>540,161 VND</t>
+  </si>
+  <si>
+    <t>MB-TKThe :104873195013, tai Vietinbank. ND Chuyen tien -CTLNHIDO0</t>
+  </si>
+  <si>
+    <t>27/01/2022 23:59:59</t>
+  </si>
+  <si>
+    <t>+85</t>
+  </si>
+  <si>
+    <t>1,040,161 VND</t>
+  </si>
+  <si>
+    <t>25/01/2022 23:59:59</t>
+  </si>
+  <si>
+    <t>-11,000</t>
+  </si>
+  <si>
+    <t>1,040,076 VND</t>
+  </si>
+  <si>
+    <t>AFT 0000000000280701029G000000036PHI DUY TRI DV SMARTBANKING T12 2021</t>
+  </si>
+  <si>
+    <t>07/01/2022 11:55:03</t>
+  </si>
+  <si>
+    <t>+200,000</t>
+  </si>
+  <si>
+    <t>1,051,076 VND</t>
+  </si>
+  <si>
+    <t>TKThe :697778889999, tai MB. Ck tien lam hieu ung slide -CTLNHIDI0</t>
+  </si>
+  <si>
+    <t>31/12/2021 14:41:23</t>
+  </si>
+  <si>
+    <t>-169,000</t>
+  </si>
+  <si>
+    <t>851,076 VND</t>
+  </si>
+  <si>
+    <t>Tfr Ac: 21110001102757 O@L_003030_212501_0_0_479535227___.8807433806.UNICA JSC.PHAM DUC THO</t>
+  </si>
+  <si>
+    <t>27/12/2021 23:59:59</t>
+  </si>
+  <si>
+    <t>+90</t>
+  </si>
+  <si>
+    <t>1,020,076 VND</t>
+  </si>
+  <si>
+    <t>21/12/2021 16:43:51</t>
+  </si>
+  <si>
+    <t>-9,900</t>
+  </si>
+  <si>
+    <t>1,019,986 VND</t>
+  </si>
+  <si>
+    <t>PHI DICH VU NHAN TIN TU DONG (BSMS) THANG 12.2021. MA KH: 11385307</t>
+  </si>
+  <si>
+    <t>19/12/2021 09:40:19</t>
+  </si>
+  <si>
+    <t>1,029,886 VND</t>
+  </si>
+  <si>
+    <t>Tfr Ac: 12010008966678 O@L_010002_211701_0_0_471461839_VIETTEL NaptienVIETTLPAY BIDV 211219 2112192886320 Nap tien ViettelPay 84343510657</t>
+  </si>
+  <si>
+    <t>09/12/2021 23:59:59</t>
+  </si>
+  <si>
+    <t>-3,300</t>
+  </si>
+  <si>
+    <t>1,329,886 VND</t>
+  </si>
+  <si>
+    <t>AFT 0000000000280701029G000000035PHI QUAN LY TAI KHOAN 471xxx3988 T12 202</t>
+  </si>
+  <si>
+    <t>08/12/2021 23:59:59</t>
+  </si>
+  <si>
+    <t>1,333,186 VND</t>
+  </si>
+  <si>
+    <t>AFT 0000000000280701029G000000034PHI DUY TRI DV SMARTBANKING T11 2021</t>
+  </si>
+  <si>
+    <t>08/12/2021 16:05:11</t>
+  </si>
+  <si>
+    <t>1,344,186 VND</t>
+  </si>
+  <si>
+    <t>PHI DICH VU NHAN TIN TU DONG (BSMS) THANG 11.2021. MA KH: 11385307</t>
+  </si>
+  <si>
+    <t>03/12/2021 19:13:59</t>
+  </si>
+  <si>
+    <t>-1,800,000</t>
+  </si>
+  <si>
+    <t>1,354,086 VND</t>
+  </si>
+  <si>
+    <t>Tfr Ac: 12010008966678 O@L_010002_211701_0_0_460587721_VIETTEL NaptienVIETTLPAY BIDV 211203 2112032280944 Nap tien ViettelPay 84343510657</t>
+  </si>
+  <si>
+    <t>03/12/2021 14:13:48</t>
+  </si>
+  <si>
+    <t>+2,730,000</t>
+  </si>
+  <si>
+    <t>3,154,086 VND</t>
+  </si>
+  <si>
+    <t>TKThe :19034845466011, tai TCB. CHUYEN TIEN DEN SO TAI KHOAN 47110001193988 - PHAM DUC THO FT21337554936797 -CTLNHIDI0</t>
+  </si>
+  <si>
+    <t>27/11/2021 23:59:59</t>
+  </si>
+  <si>
+    <t>+37</t>
+  </si>
+  <si>
+    <t>424,086 VND</t>
+  </si>
+  <si>
+    <t>27/11/2021 12:00:50</t>
+  </si>
+  <si>
+    <t>424,049 VND</t>
+  </si>
+  <si>
+    <t>Tfr Ac: 12010008966678 O@L_010002_211701_0_0_456759514_VIETTEL NaptienVIETTLPAY BIDV 211127 2111272033688 Nap tien ViettelPay 84343510657</t>
+  </si>
+  <si>
+    <t>27/11/2021 11:51:12</t>
+  </si>
+  <si>
+    <t>+300,000</t>
+  </si>
+  <si>
+    <t>724,049 VND</t>
+  </si>
+  <si>
+    <t>19/11/2021 14:46:14</t>
+  </si>
+  <si>
+    <t>PHI DICH VU NHAN TIN TU DONG (BSMS) THANG 10.2021. MA KH: 11385307</t>
+  </si>
+  <si>
+    <t>18/11/2021 23:59:59</t>
+  </si>
+  <si>
+    <t>433,949 VND</t>
+  </si>
+  <si>
+    <t>AFT 0000000000280701029G000000033PHI QUAN LY TAI KHOAN 471xxx3988 T11 202</t>
+  </si>
+  <si>
+    <t>14/11/2021 18:38:17</t>
+  </si>
+  <si>
+    <t>-1,250,000</t>
+  </si>
+  <si>
+    <t>437,249 VND</t>
+  </si>
+  <si>
+    <t>Tfr Ac: 21110001536471 PHAM DUC THO Chuyen tien</t>
+  </si>
+  <si>
+    <t>1,687,249 VND</t>
+  </si>
+  <si>
+    <t>PHAM DUC THO Chuyen tien</t>
+  </si>
+  <si>
+    <t>14/11/2021 18:36:03</t>
+  </si>
+  <si>
+    <t>+1,250,000</t>
+  </si>
+  <si>
+    <t>1,688,349 VND</t>
+  </si>
+  <si>
+    <t>28/10/2021 09:43:09</t>
+  </si>
+  <si>
+    <t>-10,000</t>
+  </si>
+  <si>
+    <t>438,349 VND</t>
+  </si>
+  <si>
+    <t>Tfr Ac: 17710000067012 O@L_080001_211701_0_0_436389717_Nap vi dien tu MoMo 01643510657</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ h\.mm\ \a"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,24 +491,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,12 +511,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -329,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,28 +545,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,79 +576,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1054" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6350" y="0"/>
-          <a:ext cx="2032000" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,27 +840,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="true" width="1.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="6" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="6" width="22.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="8" width="22.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="1" width="1.26953125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.08984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.54296875" style="6" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.7265625" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="67.1796875" style="7" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="3"/>
@@ -765,231 +877,731 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    <row r="8" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="s">
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21">
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>58</v>
+      <c r="D27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C7:E7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2" stopIfTrue="1" operator="containsText" id="{E715AEF6-D605-47F7-80FC-5A33D7C22FB8}">

--- a/topic_03/excercise/import-excel-banking/target/classes/fis/java/banking/lich-su-giao-dich.xlsx
+++ b/topic_03/excercise/import-excel-banking/target/classes/fis/java/banking/lich-su-giao-dich.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A3B4FC-E9B3-4AE5-81D0-3C8510293C7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{45028A56-DF33-4D38-B39F-609F49E76FF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="5730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -843,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
